--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateLoginpwdNull.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateLoginpwdNull.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13080" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,7 +55,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证登录用户名为空</t>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证登录密码为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +413,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -429,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -445,9 +446,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateLoginpwdNull.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateLoginpwdNull.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13080" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>验证登录密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -421,11 +429,12 @@
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,20 +445,26 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateLoginpwdNull.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateLoginpwdNull.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -63,11 +63,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -444,8 +444,8 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
